--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Slit2-Robo4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Slit2-Robo4.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1645843333333333</v>
+        <v>0.02743666666666666</v>
       </c>
       <c r="H2">
-        <v>0.493753</v>
+        <v>0.08230999999999999</v>
       </c>
       <c r="I2">
-        <v>0.03485847193389391</v>
+        <v>0.007366285056527356</v>
       </c>
       <c r="J2">
-        <v>0.03485847193389391</v>
+        <v>0.007366285056527356</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>43.55927533333334</v>
+        <v>52.91852733333334</v>
       </c>
       <c r="N2">
-        <v>130.677826</v>
+        <v>158.755582</v>
       </c>
       <c r="O2">
-        <v>0.9894183625413969</v>
+        <v>0.9912603569328422</v>
       </c>
       <c r="P2">
-        <v>0.9894183625413967</v>
+        <v>0.9912603569328421</v>
       </c>
       <c r="Q2">
-        <v>7.169174291219779</v>
+        <v>1.451907994935556</v>
       </c>
       <c r="R2">
-        <v>64.52256862097801</v>
+        <v>13.06717195442</v>
       </c>
       <c r="S2">
-        <v>0.03448961222152856</v>
+        <v>0.007301906354402369</v>
       </c>
       <c r="T2">
-        <v>0.03448961222152855</v>
+        <v>0.007301906354402368</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1645843333333333</v>
+        <v>0.02743666666666666</v>
       </c>
       <c r="H3">
-        <v>0.493753</v>
+        <v>0.08230999999999999</v>
       </c>
       <c r="I3">
-        <v>0.03485847193389391</v>
+        <v>0.007366285056527356</v>
       </c>
       <c r="J3">
-        <v>0.03485847193389391</v>
+        <v>0.007366285056527356</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>0.616788</v>
       </c>
       <c r="O3">
-        <v>0.004669968820840217</v>
+        <v>0.003851187374513192</v>
       </c>
       <c r="P3">
-        <v>0.004669968820840216</v>
+        <v>0.003851187374513192</v>
       </c>
       <c r="Q3">
-        <v>0.033837880596</v>
+        <v>0.00564086892</v>
       </c>
       <c r="R3">
-        <v>0.304540925364</v>
+        <v>0.05076782027999999</v>
       </c>
       <c r="S3">
-        <v>0.0001627879770734183</v>
+        <v>2.836894400676335E-05</v>
       </c>
       <c r="T3">
-        <v>0.0001627879770734183</v>
+        <v>2.836894400676335E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,46 +658,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1645843333333333</v>
+        <v>0.02743666666666666</v>
       </c>
       <c r="H4">
-        <v>0.493753</v>
+        <v>0.08230999999999999</v>
       </c>
       <c r="I4">
-        <v>0.03485847193389391</v>
+        <v>0.007366285056527356</v>
       </c>
       <c r="J4">
-        <v>0.03485847193389391</v>
+        <v>0.007366285056527356</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.260262</v>
+        <v>0.2609706666666667</v>
       </c>
       <c r="N4">
-        <v>0.780786</v>
+        <v>0.7829120000000001</v>
       </c>
       <c r="O4">
-        <v>0.005911668637762975</v>
+        <v>0.004888455692644593</v>
       </c>
       <c r="P4">
-        <v>0.005911668637762974</v>
+        <v>0.004888455692644592</v>
       </c>
       <c r="Q4">
-        <v>0.042835047762</v>
+        <v>0.007160165191111111</v>
       </c>
       <c r="R4">
-        <v>0.385515429858</v>
+        <v>0.06444148672</v>
       </c>
       <c r="S4">
-        <v>0.0002060717352919415</v>
+        <v>3.600975811822395E-05</v>
       </c>
       <c r="T4">
-        <v>0.0002060717352919415</v>
+        <v>3.600975811822394E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.368329000000001</v>
+        <v>3.368329</v>
       </c>
       <c r="H5">
         <v>10.104987</v>
       </c>
       <c r="I5">
-        <v>0.7134020567608963</v>
+        <v>0.9043398704228307</v>
       </c>
       <c r="J5">
-        <v>0.7134020567608963</v>
+        <v>0.9043398704228307</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>43.55927533333334</v>
+        <v>52.91852733333334</v>
       </c>
       <c r="N5">
-        <v>130.677826</v>
+        <v>158.755582</v>
       </c>
       <c r="O5">
-        <v>0.9894183625413969</v>
+        <v>0.9912603569328422</v>
       </c>
       <c r="P5">
-        <v>0.9894183625413967</v>
+        <v>0.9912603569328421</v>
       </c>
       <c r="Q5">
-        <v>146.7219703242514</v>
+        <v>178.2470102541593</v>
       </c>
       <c r="R5">
-        <v>1320.497732918262</v>
+        <v>1604.223092287434</v>
       </c>
       <c r="S5">
-        <v>0.7058530948340307</v>
+        <v>0.8964362627439354</v>
       </c>
       <c r="T5">
-        <v>0.7058530948340306</v>
+        <v>0.8964362627439353</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.368329000000001</v>
+        <v>3.368329</v>
       </c>
       <c r="H6">
         <v>10.104987</v>
       </c>
       <c r="I6">
-        <v>0.7134020567608963</v>
+        <v>0.9043398704228307</v>
       </c>
       <c r="J6">
-        <v>0.7134020567608963</v>
+        <v>0.9043398704228307</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,22 +806,22 @@
         <v>0.616788</v>
       </c>
       <c r="O6">
-        <v>0.004669968820840217</v>
+        <v>0.003851187374513192</v>
       </c>
       <c r="P6">
-        <v>0.004669968820840216</v>
+        <v>0.003851187374513192</v>
       </c>
       <c r="Q6">
-        <v>0.6925149690840001</v>
+        <v>0.6925149690839999</v>
       </c>
       <c r="R6">
-        <v>6.232634721756001</v>
+        <v>6.232634721756</v>
       </c>
       <c r="S6">
-        <v>0.003331565361796668</v>
+        <v>0.003482782291241302</v>
       </c>
       <c r="T6">
-        <v>0.003331565361796668</v>
+        <v>0.003482782291241302</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,46 +844,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.368329000000001</v>
+        <v>3.368329</v>
       </c>
       <c r="H7">
         <v>10.104987</v>
       </c>
       <c r="I7">
-        <v>0.7134020567608963</v>
+        <v>0.9043398704228307</v>
       </c>
       <c r="J7">
-        <v>0.7134020567608963</v>
+        <v>0.9043398704228307</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.260262</v>
+        <v>0.2609706666666667</v>
       </c>
       <c r="N7">
-        <v>0.780786</v>
+        <v>0.7829120000000001</v>
       </c>
       <c r="O7">
-        <v>0.005911668637762975</v>
+        <v>0.004888455692644593</v>
       </c>
       <c r="P7">
-        <v>0.005911668637762974</v>
+        <v>0.004888455692644592</v>
       </c>
       <c r="Q7">
-        <v>0.8766480421980001</v>
+        <v>0.8790350646826667</v>
       </c>
       <c r="R7">
-        <v>7.889832379782001</v>
+        <v>7.911315582144</v>
       </c>
       <c r="S7">
-        <v>0.004217396565068992</v>
+        <v>0.00442082538765396</v>
       </c>
       <c r="T7">
-        <v>0.004217396565068992</v>
+        <v>0.004420825387653959</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.188588333333333</v>
+        <v>0.3288616666666667</v>
       </c>
       <c r="H8">
-        <v>3.565765</v>
+        <v>0.9865849999999999</v>
       </c>
       <c r="I8">
-        <v>0.2517394713052097</v>
+        <v>0.08829384452064198</v>
       </c>
       <c r="J8">
-        <v>0.2517394713052097</v>
+        <v>0.08829384452064198</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>43.55927533333334</v>
+        <v>52.91852733333334</v>
       </c>
       <c r="N8">
-        <v>130.677826</v>
+        <v>158.755582</v>
       </c>
       <c r="O8">
-        <v>0.9894183625413969</v>
+        <v>0.9912603569328422</v>
       </c>
       <c r="P8">
-        <v>0.9894183625413967</v>
+        <v>0.9912603569328421</v>
       </c>
       <c r="Q8">
-        <v>51.77404646965445</v>
+        <v>17.40287509638556</v>
       </c>
       <c r="R8">
-        <v>465.96641822689</v>
+        <v>156.62587586747</v>
       </c>
       <c r="S8">
-        <v>0.2490756554858375</v>
+        <v>0.08752218783450445</v>
       </c>
       <c r="T8">
-        <v>0.2490756554858375</v>
+        <v>0.08752218783450444</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.188588333333333</v>
+        <v>0.3288616666666667</v>
       </c>
       <c r="H9">
-        <v>3.565765</v>
+        <v>0.9865849999999999</v>
       </c>
       <c r="I9">
-        <v>0.2517394713052097</v>
+        <v>0.08829384452064198</v>
       </c>
       <c r="J9">
-        <v>0.2517394713052097</v>
+        <v>0.08829384452064198</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,22 +992,22 @@
         <v>0.616788</v>
       </c>
       <c r="O9">
-        <v>0.004669968820840217</v>
+        <v>0.003851187374513192</v>
       </c>
       <c r="P9">
-        <v>0.004669968820840216</v>
+        <v>0.003851187374513192</v>
       </c>
       <c r="Q9">
-        <v>0.24436900698</v>
+        <v>0.06761264322</v>
       </c>
       <c r="R9">
-        <v>2.19932106282</v>
+        <v>0.60851378898</v>
       </c>
       <c r="S9">
-        <v>0.00117561548197013</v>
+        <v>0.0003400361392651272</v>
       </c>
       <c r="T9">
-        <v>0.001175615481970129</v>
+        <v>0.0003400361392651272</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,46 +1030,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.188588333333333</v>
+        <v>0.3288616666666667</v>
       </c>
       <c r="H10">
-        <v>3.565765</v>
+        <v>0.9865849999999999</v>
       </c>
       <c r="I10">
-        <v>0.2517394713052097</v>
+        <v>0.08829384452064198</v>
       </c>
       <c r="J10">
-        <v>0.2517394713052097</v>
+        <v>0.08829384452064198</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.260262</v>
+        <v>0.2609706666666667</v>
       </c>
       <c r="N10">
-        <v>0.780786</v>
+        <v>0.7829120000000001</v>
       </c>
       <c r="O10">
-        <v>0.005911668637762975</v>
+        <v>0.004888455692644593</v>
       </c>
       <c r="P10">
-        <v>0.005911668637762974</v>
+        <v>0.004888455692644592</v>
       </c>
       <c r="Q10">
-        <v>0.30934437681</v>
+        <v>0.08582324839111112</v>
       </c>
       <c r="R10">
-        <v>2.78409939129</v>
+        <v>0.77240923552</v>
       </c>
       <c r="S10">
-        <v>0.00148820033740204</v>
+        <v>0.0004316205468724089</v>
       </c>
       <c r="T10">
-        <v>0.00148820033740204</v>
+        <v>0.0004316205468724088</v>
       </c>
     </row>
   </sheetData>
